--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2049.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2049.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15709182267388</v>
+        <v>1.300385713577271</v>
       </c>
       <c r="B1">
-        <v>2.576807295194567</v>
+        <v>1.93176805973053</v>
       </c>
       <c r="C1">
-        <v>5.53299612149935</v>
+        <v>5.213043212890625</v>
       </c>
       <c r="D1">
-        <v>2.563237505284395</v>
+        <v>1.979284882545471</v>
       </c>
       <c r="E1">
-        <v>1.213130514653741</v>
+        <v>1.089383721351624</v>
       </c>
     </row>
   </sheetData>
